--- a/biology/Zoologie/Dascyllus_aruanus/Dascyllus_aruanus.xlsx
+++ b/biology/Zoologie/Dascyllus_aruanus/Dascyllus_aruanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dascyllus aruanus · Demoiselle à trois bandes noires, Demoiselle à queue blanche
- Dascyllus aruanus, communément nommé Demoiselle à trois bandes noires[1] ou Demoiselle à queue blanche, est une espèce de poissons marins de la famille des Pomacentridae.
+ Dascyllus aruanus, communément nommé Demoiselle à trois bandes noires ou Demoiselle à queue blanche, est une espèce de poissons marins de la famille des Pomacentridae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Localité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Demoiselle à trois bandes noires est présente dans les eaux tropicales de la région Indo-Pacifique,Mer Rouge incluse[2][3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Demoiselle à trois bandes noires est présente dans les eaux tropicales de la région Indo-Pacifique,Mer Rouge incluse.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille maximale est de 10 cm mais la taille généralement observée est de 6 cm [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille maximale est de 10 cm mais la taille généralement observée est de 6 cm .
 </t>
         </is>
       </c>
